--- a/Documentation/Documents finaux/Test.xlsx
+++ b/Documentation/Documents finaux/Test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ProjetProgrammation\Chat\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\ProjetProgrammation\Chat\Documentation\Documents finaux\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -980,22 +980,26 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1025,6 +1029,60 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1032,64 +1090,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1374,7 +1374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
@@ -1399,7 +1399,7 @@
       <c r="D1" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="28" t="s">
         <v>204</v>
       </c>
     </row>
@@ -1414,11 +1414,11 @@
       <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="34"/>
-      <c r="G3" s="35"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
@@ -1430,11 +1430,11 @@
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="10" t="s">
@@ -1446,11 +1446,11 @@
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="43"/>
     </row>
     <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -1460,11 +1460,11 @@
         <v>12</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="62" t="s">
         <v>165</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="64"/>
     </row>
     <row r="7" spans="2:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
@@ -1476,11 +1476,11 @@
       <c r="D7" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E7" s="36" t="s">
+      <c r="E7" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="38"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="40"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
@@ -1492,11 +1492,11 @@
       <c r="D8" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E8" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="F8" s="40"/>
-      <c r="G8" s="41"/>
+      <c r="E8" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="42"/>
+      <c r="G8" s="43"/>
     </row>
     <row r="10" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1509,11 +1509,11 @@
       <c r="D11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
@@ -1525,11 +1525,11 @@
       <c r="D12" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="40"/>
     </row>
     <row r="13" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
@@ -1541,11 +1541,11 @@
       <c r="D13" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
     </row>
     <row r="14" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
@@ -1557,11 +1557,11 @@
       <c r="D14" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="E14" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
+      <c r="E14" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" s="42"/>
+      <c r="G14" s="43"/>
     </row>
     <row r="15" spans="2:7" ht="75" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
@@ -1573,11 +1573,11 @@
       <c r="D15" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="38"/>
+      <c r="E15" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" s="39"/>
+      <c r="G15" s="40"/>
     </row>
     <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
@@ -1589,11 +1589,11 @@
       <c r="D16" s="17" t="s">
         <v>139</v>
       </c>
-      <c r="E16" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
+      <c r="E16" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
     </row>
     <row r="17" spans="2:7" ht="109.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" spans="2:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1612,11 +1612,11 @@
       <c r="D21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="35"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
@@ -1628,11 +1628,11 @@
       <c r="D22" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="E22" s="48" t="s">
+      <c r="E22" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="F22" s="49"/>
-      <c r="G22" s="50"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="49"/>
     </row>
     <row r="23" spans="2:7" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
@@ -1644,11 +1644,11 @@
       <c r="D23" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="E23" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="F23" s="46"/>
-      <c r="G23" s="47"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="46"/>
     </row>
     <row r="24" spans="2:7" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
@@ -1660,11 +1660,11 @@
       <c r="D24" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="E24" s="45" t="s">
+      <c r="E24" s="44" t="s">
         <v>143</v>
       </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="47"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="46"/>
     </row>
     <row r="25" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
@@ -1676,19 +1676,19 @@
       <c r="D25" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="F25" s="37"/>
-      <c r="G25" s="38"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="40"/>
     </row>
     <row r="26" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="10"/>
       <c r="C26" s="2"/>
       <c r="D26" s="17"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="32"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="61"/>
     </row>
     <row r="27" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="2:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1702,11 +1702,11 @@
       <c r="D29" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F29" s="34"/>
-      <c r="G29" s="35"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="37"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
@@ -1718,11 +1718,11 @@
       <c r="D30" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E30" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F30" s="37"/>
-      <c r="G30" s="38"/>
+      <c r="E30" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="39"/>
+      <c r="G30" s="40"/>
     </row>
     <row r="31" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
@@ -1734,11 +1734,11 @@
       <c r="D31" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E31" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F31" s="37"/>
-      <c r="G31" s="38"/>
+      <c r="E31" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="39"/>
+      <c r="G31" s="40"/>
     </row>
     <row r="32" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
@@ -1750,11 +1750,11 @@
       <c r="D32" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E32" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F32" s="37"/>
-      <c r="G32" s="38"/>
+      <c r="E32" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F32" s="39"/>
+      <c r="G32" s="40"/>
     </row>
     <row r="33" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
@@ -1766,11 +1766,11 @@
       <c r="D33" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E33" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F33" s="37"/>
-      <c r="G33" s="38"/>
+      <c r="E33" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" s="39"/>
+      <c r="G33" s="40"/>
     </row>
     <row r="34" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
@@ -1782,11 +1782,11 @@
       <c r="D34" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E34" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="F34" s="40"/>
-      <c r="G34" s="41"/>
+      <c r="E34" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" s="42"/>
+      <c r="G34" s="43"/>
     </row>
     <row r="36" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1799,11 +1799,11 @@
       <c r="D37" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="33" t="s">
+      <c r="E37" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F37" s="34"/>
-      <c r="G37" s="35"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="37"/>
     </row>
     <row r="38" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
@@ -1815,11 +1815,11 @@
       <c r="D38" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="E38" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F38" s="37"/>
-      <c r="G38" s="38"/>
+      <c r="E38" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" s="39"/>
+      <c r="G38" s="40"/>
     </row>
     <row r="39" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
@@ -1831,11 +1831,11 @@
       <c r="D39" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="E39" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F39" s="37"/>
-      <c r="G39" s="38"/>
+      <c r="E39" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F39" s="39"/>
+      <c r="G39" s="40"/>
     </row>
     <row r="40" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
@@ -1847,11 +1847,11 @@
       <c r="D40" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="E40" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F40" s="37"/>
-      <c r="G40" s="38"/>
+      <c r="E40" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" s="39"/>
+      <c r="G40" s="40"/>
     </row>
     <row r="41" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
@@ -1863,11 +1863,11 @@
       <c r="D41" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="E41" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F41" s="37"/>
-      <c r="G41" s="38"/>
+      <c r="E41" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F41" s="39"/>
+      <c r="G41" s="40"/>
     </row>
     <row r="42" spans="2:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
@@ -1879,11 +1879,11 @@
       <c r="D42" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="E42" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F42" s="37"/>
-      <c r="G42" s="38"/>
+      <c r="E42" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F42" s="39"/>
+      <c r="G42" s="40"/>
     </row>
     <row r="43" spans="2:7" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1896,11 +1896,11 @@
       <c r="D44" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="33" t="s">
+      <c r="E44" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F44" s="34"/>
-      <c r="G44" s="35"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="37"/>
     </row>
     <row r="45" spans="2:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="9" t="s">
@@ -1912,11 +1912,11 @@
       <c r="D45" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="E45" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F45" s="37"/>
-      <c r="G45" s="38"/>
+      <c r="E45" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45" s="39"/>
+      <c r="G45" s="40"/>
     </row>
     <row r="46" spans="2:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
@@ -1928,11 +1928,11 @@
       <c r="D46" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="E46" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F46" s="37"/>
-      <c r="G46" s="38"/>
+      <c r="E46" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F46" s="39"/>
+      <c r="G46" s="40"/>
     </row>
     <row r="47" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
@@ -1944,11 +1944,11 @@
       <c r="D47" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="E47" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F47" s="37"/>
-      <c r="G47" s="38"/>
+      <c r="E47" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F47" s="39"/>
+      <c r="G47" s="40"/>
     </row>
     <row r="48" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
@@ -1960,11 +1960,11 @@
       <c r="D48" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="E48" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F48" s="37"/>
-      <c r="G48" s="38"/>
+      <c r="E48" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F48" s="39"/>
+      <c r="G48" s="40"/>
     </row>
     <row r="49" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
@@ -1976,11 +1976,11 @@
       <c r="D49" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="E49" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F49" s="37"/>
-      <c r="G49" s="38"/>
+      <c r="E49" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F49" s="39"/>
+      <c r="G49" s="40"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B50" s="13"/>
@@ -1996,11 +1996,11 @@
       <c r="D52" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="33" t="s">
+      <c r="E52" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F52" s="34"/>
-      <c r="G52" s="35"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="37"/>
     </row>
     <row r="53" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B53" s="9" t="s">
@@ -2012,11 +2012,11 @@
       <c r="D53" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="E53" s="36" t="s">
+      <c r="E53" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="F53" s="37"/>
-      <c r="G53" s="38"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="40"/>
     </row>
     <row r="54" spans="2:10" ht="90" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
@@ -2028,11 +2028,11 @@
       <c r="D54" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="E54" s="39" t="s">
+      <c r="E54" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="F54" s="40"/>
-      <c r="G54" s="41"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="43"/>
     </row>
     <row r="55" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
@@ -2044,27 +2044,27 @@
       <c r="D55" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="E55" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="F55" s="40"/>
-      <c r="G55" s="41"/>
+      <c r="E55" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="F55" s="42"/>
+      <c r="G55" s="43"/>
     </row>
     <row r="56" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B56" s="10"/>
       <c r="C56" s="8"/>
       <c r="D56" s="16"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="29"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="58"/>
     </row>
     <row r="57" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B57" s="10"/>
       <c r="C57" s="2"/>
       <c r="D57" s="17"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="32"/>
+      <c r="E57" s="59"/>
+      <c r="F57" s="60"/>
+      <c r="G57" s="61"/>
     </row>
     <row r="59" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2077,16 +2077,16 @@
       <c r="D60" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E60" s="33" t="s">
+      <c r="E60" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F60" s="34"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="33" t="s">
+      <c r="F60" s="36"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="I60" s="34"/>
-      <c r="J60" s="35"/>
+      <c r="I60" s="36"/>
+      <c r="J60" s="37"/>
     </row>
     <row r="61" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B61" s="9" t="s">
@@ -2098,14 +2098,14 @@
       <c r="D61" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="E61" s="48" t="s">
+      <c r="E61" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="F61" s="49"/>
-      <c r="G61" s="50"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="58"/>
-      <c r="J61" s="59"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="31"/>
     </row>
     <row r="62" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
@@ -2117,14 +2117,14 @@
       <c r="D62" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="E62" s="48" t="s">
+      <c r="E62" s="47" t="s">
         <v>159</v>
       </c>
-      <c r="F62" s="49"/>
-      <c r="G62" s="50"/>
-      <c r="H62" s="57"/>
-      <c r="I62" s="58"/>
-      <c r="J62" s="59"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="49"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="31"/>
     </row>
     <row r="63" spans="2:10" ht="60" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
@@ -2136,16 +2136,16 @@
       <c r="D63" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="E63" s="45" t="s">
+      <c r="E63" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="F63" s="46"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="62" t="s">
+      <c r="F63" s="45"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="I63" s="63"/>
-      <c r="J63" s="64"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="34"/>
     </row>
     <row r="64" spans="2:10" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
@@ -2157,16 +2157,16 @@
       <c r="D64" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="E64" s="51" t="s">
+      <c r="E64" s="53" t="s">
         <v>164</v>
       </c>
-      <c r="F64" s="52"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="62" t="s">
+      <c r="F64" s="54"/>
+      <c r="G64" s="55"/>
+      <c r="H64" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="I64" s="63"/>
-      <c r="J64" s="64"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="34"/>
     </row>
     <row r="66" spans="2:10" ht="133.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D66" s="23" t="s">
@@ -2183,11 +2183,11 @@
       <c r="D67" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E67" s="33" t="s">
+      <c r="E67" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F67" s="34"/>
-      <c r="G67" s="35"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="37"/>
     </row>
     <row r="68" spans="2:10" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B68" s="9" t="s">
@@ -2199,11 +2199,11 @@
       <c r="D68" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="E68" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F68" s="37"/>
-      <c r="G68" s="38"/>
+      <c r="E68" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F68" s="39"/>
+      <c r="G68" s="40"/>
     </row>
     <row r="69" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
@@ -2215,11 +2215,11 @@
       <c r="D69" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="E69" s="45" t="s">
+      <c r="E69" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="F69" s="46"/>
-      <c r="G69" s="47"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="46"/>
     </row>
     <row r="70" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
@@ -2231,11 +2231,11 @@
       <c r="D70" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="E70" s="39" t="s">
+      <c r="E70" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="F70" s="40"/>
-      <c r="G70" s="41"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="43"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
@@ -2247,11 +2247,11 @@
       <c r="D71" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="E71" s="36" t="s">
+      <c r="E71" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="F71" s="37"/>
-      <c r="G71" s="38"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="40"/>
     </row>
     <row r="73" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="74" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2264,16 +2264,16 @@
       <c r="D74" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E74" s="33" t="s">
+      <c r="E74" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F74" s="34"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="33" t="s">
+      <c r="F74" s="36"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="I74" s="34"/>
-      <c r="J74" s="35"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="37"/>
     </row>
     <row r="75" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B75" s="9" t="s">
@@ -2285,14 +2285,14 @@
       <c r="D75" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="E75" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F75" s="37"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="57"/>
-      <c r="I75" s="58"/>
-      <c r="J75" s="59"/>
+      <c r="E75" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F75" s="39"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="31"/>
     </row>
     <row r="76" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
@@ -2304,14 +2304,14 @@
       <c r="D76" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="E76" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="F76" s="40"/>
-      <c r="G76" s="41"/>
-      <c r="H76" s="57"/>
-      <c r="I76" s="58"/>
-      <c r="J76" s="59"/>
+      <c r="E76" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="F76" s="42"/>
+      <c r="G76" s="43"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="31"/>
     </row>
     <row r="77" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
@@ -2323,14 +2323,14 @@
       <c r="D77" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="E77" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="F77" s="40"/>
-      <c r="G77" s="41"/>
-      <c r="H77" s="57"/>
-      <c r="I77" s="58"/>
-      <c r="J77" s="59"/>
+      <c r="E77" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="F77" s="42"/>
+      <c r="G77" s="43"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="31"/>
     </row>
     <row r="78" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
@@ -2342,14 +2342,14 @@
       <c r="D78" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="E78" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="F78" s="40"/>
-      <c r="G78" s="41"/>
-      <c r="H78" s="57"/>
-      <c r="I78" s="58"/>
-      <c r="J78" s="59"/>
+      <c r="E78" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="F78" s="42"/>
+      <c r="G78" s="43"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="31"/>
     </row>
     <row r="79" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
@@ -2361,16 +2361,16 @@
       <c r="D79" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="E79" s="54" t="s">
+      <c r="E79" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="F79" s="55"/>
-      <c r="G79" s="56"/>
-      <c r="H79" s="62" t="s">
+      <c r="F79" s="51"/>
+      <c r="G79" s="52"/>
+      <c r="H79" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="I79" s="63"/>
-      <c r="J79" s="64"/>
+      <c r="I79" s="33"/>
+      <c r="J79" s="34"/>
     </row>
     <row r="80" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
@@ -2382,16 +2382,16 @@
       <c r="D80" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="E80" s="54" t="s">
+      <c r="E80" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="F80" s="55"/>
-      <c r="G80" s="56"/>
-      <c r="H80" s="62" t="s">
+      <c r="F80" s="51"/>
+      <c r="G80" s="52"/>
+      <c r="H80" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="I80" s="63"/>
-      <c r="J80" s="64"/>
+      <c r="I80" s="33"/>
+      <c r="J80" s="34"/>
     </row>
     <row r="82" spans="2:7" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="19" t="s">
@@ -2408,11 +2408,11 @@
       <c r="D83" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="33" t="s">
+      <c r="E83" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F83" s="34"/>
-      <c r="G83" s="35"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="37"/>
     </row>
     <row r="84" spans="2:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="9" t="s">
@@ -2424,11 +2424,11 @@
       <c r="D84" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="E84" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F84" s="37"/>
-      <c r="G84" s="38"/>
+      <c r="E84" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F84" s="39"/>
+      <c r="G84" s="40"/>
     </row>
     <row r="85" spans="2:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
@@ -2440,11 +2440,11 @@
       <c r="D85" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="E85" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="F85" s="40"/>
-      <c r="G85" s="41"/>
+      <c r="E85" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="F85" s="42"/>
+      <c r="G85" s="43"/>
     </row>
     <row r="86" spans="2:7" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
@@ -2472,11 +2472,11 @@
       <c r="D87" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="E87" s="45" t="s">
+      <c r="E87" s="44" t="s">
         <v>171</v>
       </c>
-      <c r="F87" s="46"/>
-      <c r="G87" s="47"/>
+      <c r="F87" s="45"/>
+      <c r="G87" s="46"/>
     </row>
     <row r="88" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
@@ -2488,11 +2488,11 @@
       <c r="D88" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="E88" s="48" t="s">
+      <c r="E88" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="F88" s="49"/>
-      <c r="G88" s="50"/>
+      <c r="F88" s="48"/>
+      <c r="G88" s="49"/>
     </row>
     <row r="89" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
@@ -2504,11 +2504,11 @@
       <c r="D89" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="E89" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="F89" s="40"/>
-      <c r="G89" s="41"/>
+      <c r="E89" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="F89" s="42"/>
+      <c r="G89" s="43"/>
     </row>
     <row r="90" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
@@ -2520,11 +2520,11 @@
       <c r="D90" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="E90" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="F90" s="40"/>
-      <c r="G90" s="41"/>
+      <c r="E90" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="F90" s="42"/>
+      <c r="G90" s="43"/>
     </row>
     <row r="91" spans="2:7" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="10" t="s">
@@ -2536,11 +2536,11 @@
       <c r="D91" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="E91" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="F91" s="40"/>
-      <c r="G91" s="41"/>
+      <c r="E91" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="F91" s="42"/>
+      <c r="G91" s="43"/>
     </row>
     <row r="92" spans="2:7" ht="85.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="7" t="s">
@@ -2552,11 +2552,11 @@
       <c r="D92" s="14" t="s">
         <v>186</v>
       </c>
-      <c r="E92" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="F92" s="40"/>
-      <c r="G92" s="41"/>
+      <c r="E92" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="F92" s="42"/>
+      <c r="G92" s="43"/>
     </row>
     <row r="93" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="94" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2569,11 +2569,11 @@
       <c r="D94" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E94" s="33" t="s">
+      <c r="E94" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F94" s="34"/>
-      <c r="G94" s="35"/>
+      <c r="F94" s="36"/>
+      <c r="G94" s="37"/>
     </row>
     <row r="95" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B95" s="9" t="s">
@@ -2585,11 +2585,11 @@
       <c r="D95" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="E95" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F95" s="37"/>
-      <c r="G95" s="38"/>
+      <c r="E95" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F95" s="39"/>
+      <c r="G95" s="40"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="10" t="s">
@@ -2601,11 +2601,11 @@
       <c r="D96" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="E96" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F96" s="37"/>
-      <c r="G96" s="38"/>
+      <c r="E96" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F96" s="39"/>
+      <c r="G96" s="40"/>
     </row>
     <row r="97" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
@@ -2617,11 +2617,11 @@
       <c r="D97" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="E97" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F97" s="37"/>
-      <c r="G97" s="38"/>
+      <c r="E97" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F97" s="39"/>
+      <c r="G97" s="40"/>
     </row>
     <row r="98" spans="2:7" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
@@ -2633,11 +2633,11 @@
       <c r="D98" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="E98" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F98" s="37"/>
-      <c r="G98" s="38"/>
+      <c r="E98" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F98" s="39"/>
+      <c r="G98" s="40"/>
     </row>
     <row r="100" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="101" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2650,11 +2650,11 @@
       <c r="D101" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E101" s="33" t="s">
+      <c r="E101" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F101" s="34"/>
-      <c r="G101" s="35"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="37"/>
     </row>
     <row r="102" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B102" s="9" t="s">
@@ -2666,11 +2666,11 @@
       <c r="D102" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="E102" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F102" s="37"/>
-      <c r="G102" s="38"/>
+      <c r="E102" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F102" s="39"/>
+      <c r="G102" s="40"/>
     </row>
     <row r="103" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
@@ -2682,14 +2682,14 @@
       <c r="D103" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="E103" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F103" s="37"/>
-      <c r="G103" s="38"/>
+      <c r="E103" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F103" s="39"/>
+      <c r="G103" s="40"/>
     </row>
     <row r="105" spans="2:7" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D105" s="60" t="s">
+      <c r="D105" s="27" t="s">
         <v>202</v>
       </c>
     </row>
@@ -2703,11 +2703,11 @@
       <c r="D106" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E106" s="33" t="s">
+      <c r="E106" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F106" s="34"/>
-      <c r="G106" s="35"/>
+      <c r="F106" s="36"/>
+      <c r="G106" s="37"/>
     </row>
     <row r="107" spans="2:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B107" s="9" t="s">
@@ -2719,11 +2719,11 @@
       <c r="D107" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="E107" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F107" s="37"/>
-      <c r="G107" s="38"/>
+      <c r="E107" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F107" s="39"/>
+      <c r="G107" s="40"/>
     </row>
     <row r="108" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B108" s="10" t="s">
@@ -2735,11 +2735,11 @@
       <c r="D108" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="E108" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F108" s="37"/>
-      <c r="G108" s="38"/>
+      <c r="E108" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F108" s="39"/>
+      <c r="G108" s="40"/>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" s="10" t="s">
@@ -2751,11 +2751,11 @@
       <c r="D109" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="E109" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F109" s="37"/>
-      <c r="G109" s="38"/>
+      <c r="E109" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F109" s="39"/>
+      <c r="G109" s="40"/>
     </row>
     <row r="110" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
@@ -2767,11 +2767,11 @@
       <c r="D110" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="E110" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F110" s="37"/>
-      <c r="G110" s="38"/>
+      <c r="E110" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F110" s="39"/>
+      <c r="G110" s="40"/>
     </row>
     <row r="111" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B111" s="10" t="s">
@@ -2783,11 +2783,11 @@
       <c r="D111" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="E111" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F111" s="37"/>
-      <c r="G111" s="38"/>
+      <c r="E111" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F111" s="39"/>
+      <c r="G111" s="40"/>
     </row>
     <row r="113" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="114" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2800,11 +2800,11 @@
       <c r="D114" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E114" s="33" t="s">
+      <c r="E114" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F114" s="34"/>
-      <c r="G114" s="35"/>
+      <c r="F114" s="36"/>
+      <c r="G114" s="37"/>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" s="9" t="s">
@@ -2816,11 +2816,11 @@
       <c r="D115" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="E115" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F115" s="37"/>
-      <c r="G115" s="38"/>
+      <c r="E115" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F115" s="39"/>
+      <c r="G115" s="40"/>
     </row>
     <row r="116" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
@@ -2832,11 +2832,11 @@
       <c r="D116" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="E116" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F116" s="37"/>
-      <c r="G116" s="38"/>
+      <c r="E116" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F116" s="39"/>
+      <c r="G116" s="40"/>
     </row>
     <row r="117" spans="2:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="10" t="s">
@@ -2848,11 +2848,11 @@
       <c r="D117" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="E117" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F117" s="37"/>
-      <c r="G117" s="38"/>
+      <c r="E117" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F117" s="39"/>
+      <c r="G117" s="40"/>
     </row>
     <row r="120" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="121" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2865,11 +2865,11 @@
       <c r="D121" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E121" s="33" t="s">
+      <c r="E121" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="F121" s="34"/>
-      <c r="G121" s="35"/>
+      <c r="F121" s="36"/>
+      <c r="G121" s="37"/>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B122" s="10" t="s">
@@ -2881,11 +2881,11 @@
       <c r="D122" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="E122" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F122" s="37"/>
-      <c r="G122" s="38"/>
+      <c r="E122" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F122" s="39"/>
+      <c r="G122" s="40"/>
     </row>
     <row r="123" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
@@ -2897,26 +2897,85 @@
       <c r="D123" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="E123" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="F123" s="37"/>
-      <c r="G123" s="38"/>
+      <c r="E123" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F123" s="39"/>
+      <c r="G123" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="101">
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="H79:J79"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="E121:G121"/>
+    <mergeCell ref="E122:G122"/>
+    <mergeCell ref="E123:G123"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="E91:G91"/>
     <mergeCell ref="E102:G102"/>
     <mergeCell ref="E96:G96"/>
     <mergeCell ref="E97:G97"/>
@@ -2935,77 +2994,18 @@
     <mergeCell ref="E106:G106"/>
     <mergeCell ref="E101:G101"/>
     <mergeCell ref="E103:G103"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E121:G121"/>
-    <mergeCell ref="E122:G122"/>
-    <mergeCell ref="E123:G123"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="H80:J80"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="H77:J77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
